--- a/REGULAR/MALABANAN, ALMA AGUILA.xlsx
+++ b/REGULAR/MALABANAN, ALMA AGUILA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA33CFA2-E4D7-436D-80F9-AA26981B1D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22512795-7D83-41BF-9E58-BA1BD15DB3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3409,9 +3409,9 @@
   <dimension ref="A2:K461"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3984" topLeftCell="A182" activePane="bottomLeft"/>
+      <pane ySplit="3984" topLeftCell="A343" activePane="bottomLeft"/>
       <selection activeCell="K9" sqref="A9:K9"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81:B94"/>
+      <selection pane="bottomLeft" activeCell="C353" sqref="C353:C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3587,7 +3587,7 @@
       <c r="D10" s="11"/>
       <c r="E10" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>192.30500000000001</v>
+        <v>196.05500000000001</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="13" t="str">
@@ -3597,7 +3597,7 @@
       <c r="H10" s="11"/>
       <c r="I10" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>326.375</v>
+        <v>330.125</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
@@ -6315,7 +6315,7 @@
       <c r="D138" s="42"/>
       <c r="E138" s="48">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>192.30500000000001</v>
+        <v>196.05500000000001</v>
       </c>
       <c r="F138" s="15"/>
       <c r="G138" s="41">
@@ -6325,7 +6325,7 @@
       <c r="H138" s="42"/>
       <c r="I138" s="48">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>326.375</v>
+        <v>330.125</v>
       </c>
       <c r="J138" s="12"/>
       <c r="K138" s="15"/>
@@ -10749,13 +10749,15 @@
       <c r="B354" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="C354" s="13"/>
+      <c r="C354" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D354" s="39"/>
       <c r="E354" s="48"/>
       <c r="F354" s="20"/>
-      <c r="G354" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G354" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H354" s="39"/>
       <c r="I354" s="48"/>
@@ -10769,13 +10771,15 @@
         <v>45230</v>
       </c>
       <c r="B355" s="20"/>
-      <c r="C355" s="13"/>
+      <c r="C355" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D355" s="39"/>
       <c r="E355" s="48"/>
       <c r="F355" s="20"/>
-      <c r="G355" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G355" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H355" s="39"/>
       <c r="I355" s="48"/>
@@ -10787,13 +10791,15 @@
         <v>45260</v>
       </c>
       <c r="B356" s="20"/>
-      <c r="C356" s="13"/>
+      <c r="C356" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D356" s="39"/>
       <c r="E356" s="48"/>
       <c r="F356" s="20"/>
-      <c r="G356" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G356" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H356" s="39"/>
       <c r="I356" s="48"/>
